--- a/GATEWAY/A1#111DEDALUSXXX/Regione_Sardegna/AMBWEB_SISaR_RAS/20.14/accreditamento-checklist_AMBWEB_SISaR_RAS_V8.1.3.xlsx
+++ b/GATEWAY/A1#111DEDALUSXXX/Regione_Sardegna/AMBWEB_SISaR_RAS/20.14/accreditamento-checklist_AMBWEB_SISaR_RAS_V8.1.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOCUMENTI\Sisar 2.0\MEV\SIO - SW-1937 FSE 2.0\ACCREDITAMENTO\GTW Accreditamento\it-fse-gtw-tools\gtw-certifier\target\TEST CERTIFICAZIONE FSE\A1#111DEDALUSXXX\Regione_Sardegna\AMBWEB_SISaR_RAS\20.14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0628B7BD-F6AF-4641-836A-7EF6EA73610A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5C6848-7186-4DCB-9C80-2A450D0D54C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$383</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="903">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4532,42 +4532,6 @@
     </t>
   </si>
   <si>
-    <t>2023-10-06T07:17:50Z</t>
-  </si>
-  <si>
-    <t>34ded2a8a9e31ecb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.c294453787367e109f0424ae0f1bd0e3b160950cb0d0b0e8e7b1cae35e9bc1b9.518b0d890c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>c9fcee457a3e46d7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.a2b837d71d9846422018bf42475fc0eed16b1dd0387f3b331244f9a5f4c0a609.b1986759d6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-10-09T13:48:19Z</t>
-  </si>
-  <si>
-    <t>2023-10-06T14:57:38Z</t>
-  </si>
-  <si>
-    <t>439b3e963308c235</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.d95e8392891029f11d5bde454cfeddeae3b593a16388e30df0c4462bf3f5c49e.59d4b31832^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>8a2dc39d901b8d9f</t>
-  </si>
-  <si>
-    <t>2023-10-09T15:35:44Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.240e9ef6497bb0980a66abdad76ac7ebb49878c4229072bb598ea7adcee6a06f.936fc4fc8f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
@@ -4577,169 +4541,13 @@
     <t>Viene segnalato un errore di timeout, ma il flusso applicativo prosegue con la produzione del referto</t>
   </si>
   <si>
-    <t>2023-10-10T03:52:55Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9c2d178badea7987 </t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.f41717d295697c261c29022bc4927a2c04b9210bba35bbfc1e4337c859cf04a0.ca63bbf312^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>f3eede028f88b44f</t>
-  </si>
-  <si>
-    <t>2023-10-10T05:46:09Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.fd5d9ecaa61235fdc2b1c16cd454163cc0eb2d40efbd069f8fe02ecbf2e78bcc.d45a67924d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>d606034303442bb4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.a21c13b31450665b49758f5cd0f8e4119a504d80527c7a5a6d4661ff4d83f095.eff30a5b0c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-10-10T04:38:27Z</t>
-  </si>
-  <si>
-    <t>941f4e8d58567163</t>
-  </si>
-  <si>
-    <t>2023-10-10T04:45:48Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.580c5492e98369b0616b880d28f7c7fc1734db312db0ac320ba87249b426b16e.aa15939a11^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-10-10T13:25:09Z</t>
-  </si>
-  <si>
-    <t>3f6a26216a865d5d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.c231677cb37d9837fd836cde309c6b0c03a2cad171801c69f3074cdca47125f3.04563e1077^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-10-10T05:06:31Z</t>
-  </si>
-  <si>
-    <t>42699758f2b3b757</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.1be2f19cef6c8e64bc24b472472977c93530f40ae743d91ea49b783bacdea171.2e27435b8c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>ed66d06558c27903</t>
-  </si>
-  <si>
-    <t>2023-10-10T05:10:54Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.ecdbb8bd8b2ffbbe7f4fbfb5ad6f6ebfa0ddb58f2bcaf16d64ab0302562ffa58.0c6a90d28b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-10-10T05:19:56Z</t>
-  </si>
-  <si>
-    <t>58759cf71c4bdcd0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.ffab435d987fc6b6d1126aed1774acf51faaeb560b268adc7b8797e334aa7bb2.706b40e5eb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-10-10T05:23:59Z</t>
-  </si>
-  <si>
-    <t>a90ebce471b3c840</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.65db3a8ebe28445d609940600f8272dc86e727cab3a00a9e09e904e9f8eb4a34.137d03f17a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-10-10T05:32:51Z</t>
-  </si>
-  <si>
-    <t>38e32a3f600dc0ad</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.12e158d1d0672a733441792e8fdb4c922a7af84672bf5702141d8525fd4b15f0.fa7ff02ce6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-10-10T05:37:44Z</t>
-  </si>
-  <si>
-    <t>fcdeaa858e009814</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.77697f333738ffb0b5f7dd7ae54f58224fe1cc65eceb221726844b19e948384e.86e321cf50^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-10-10T05:42:49Z</t>
-  </si>
-  <si>
-    <t>63ba3885dfb840f3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.ec109367a61719d9cd934b89766136fda18cb140c8dbece4f4a1ebaba0ee09f3.23563185f8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-10-10T14:08:12Z</t>
-  </si>
-  <si>
-    <t>57bfec8212c585e5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.200.4.4.d96f9c67957579d125130137d51254f3060492c85e1e63d9f4e82db2ea6f7bad.74799b3a54^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codice fiscale non valido </t>
-  </si>
-  <si>
-    <t>Viene richiesto all'operatore di valorizzare correttamente il campo CF, STP o ENI, o altri campi anagrafici. Se non abilitato dovrà rivolgersi ad un operatore abilitato alla modifica anagrafica dei pazienti.</t>
-  </si>
-  <si>
-    <t>Il sistema inserisce in automatico un default per confidentialityCode</t>
-  </si>
-  <si>
-    <t>Il sistema non permette l'inserimeto del valore "R"</t>
-  </si>
-  <si>
-    <t>Comune di Residenza Obbligatorio</t>
-  </si>
-  <si>
-    <t>Viene richiesto all'operatore di valorizzare correttamente il campo indicato. Se non abilitato dovrà rivolgersi ad un operatore abilitato alla modifica anagrafica dei pazienti.</t>
-  </si>
-  <si>
-    <t>Nome Paziente Obbligatorio</t>
-  </si>
-  <si>
     <t>Il sistema non permette l'inserimento di altri valori oltre M, F, Non Definito</t>
   </si>
   <si>
-    <t>l'operatore deve valorizzare correttamente il campo. Se non abilitato dovrà rivolgersi ad un operatore abilitato alla modifica.</t>
-  </si>
-  <si>
-    <t>Il sistema offre solo diagnosi strutturate e  codificate secondo il dizionario ICD9CM</t>
-  </si>
-  <si>
     <t>Si procede alla bonifica dei dati tramite intervento manuale e ritrasmissione del documento.</t>
   </si>
   <si>
     <t>Il documento viene ritrasmesso automaticamente.</t>
-  </si>
-  <si>
-    <t>2023-11-07T16:35:55Z</t>
-  </si>
-  <si>
-    <t>bd63243aa68805b7</t>
-  </si>
-  <si>
-    <t>2023-11-07T16:37:20Z</t>
-  </si>
-  <si>
-    <t>0109cd20852beb1a</t>
   </si>
   <si>
     <t>subject_application_id: AMBWEB_SISaR_RAS</t>
@@ -5232,7 +5040,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5375,9 +5183,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7843,10 +7648,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F176" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F381" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F381" sqref="F381"/>
+      <selection pane="bottomRight" activeCell="I385" sqref="I385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7914,7 +7719,7 @@
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="54" t="s">
-        <v>919</v>
+        <v>855</v>
       </c>
       <c r="D3" s="46"/>
       <c r="F3" s="9"/>
@@ -7961,7 +7766,7 @@
       <c r="A5" s="52"/>
       <c r="B5" s="53"/>
       <c r="C5" s="54" t="s">
-        <v>920</v>
+        <v>856</v>
       </c>
       <c r="D5" s="46"/>
       <c r="F5" s="9"/>
@@ -8285,21 +8090,11 @@
       <c r="E15" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="20">
-        <v>45205</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>849</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>850</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>851</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="22"/>
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
@@ -8329,21 +8124,11 @@
       <c r="E16" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="20">
-        <v>45205</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>855</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>852</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>853</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
@@ -8357,7 +8142,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="151.80000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="151.80000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17">
         <v>8</v>
       </c>
@@ -8373,21 +8158,11 @@
       <c r="E17" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="20">
-        <v>45208</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>854</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>856</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>857</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="22"/>
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
       <c r="M17" s="22"/>
@@ -8417,21 +8192,11 @@
       <c r="E18" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="20">
-        <v>45208</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>859</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>858</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>860</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="22"/>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
@@ -8581,7 +8346,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="17">
         <v>16</v>
       </c>
@@ -8615,7 +8380,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17">
         <v>17</v>
       </c>
@@ -8649,7 +8414,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="17">
         <v>18</v>
       </c>
@@ -8683,7 +8448,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17">
         <v>19</v>
       </c>
@@ -8717,7 +8482,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="17">
         <v>20</v>
       </c>
@@ -8751,7 +8516,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17">
         <v>21</v>
       </c>
@@ -8785,7 +8550,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="17">
         <v>22</v>
       </c>
@@ -8819,7 +8584,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17">
         <v>23</v>
       </c>
@@ -8853,7 +8618,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="17">
         <v>24</v>
       </c>
@@ -8887,7 +8652,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="17">
         <v>25</v>
       </c>
@@ -8921,7 +8686,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="17">
         <v>26</v>
       </c>
@@ -8955,7 +8720,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="17">
         <v>27</v>
       </c>
@@ -9039,35 +8804,17 @@
       <c r="E36" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F36" s="20">
-        <v>45208</v>
-      </c>
-      <c r="G36" s="38" t="s">
-        <v>915</v>
-      </c>
-      <c r="H36" s="38" t="s">
-        <v>916</v>
-      </c>
-      <c r="I36" s="39" t="s">
-        <v>861</v>
-      </c>
-      <c r="J36" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="F36" s="20"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="22"/>
       <c r="K36" s="22"/>
-      <c r="L36" s="22" t="s">
-        <v>845</v>
-      </c>
-      <c r="M36" s="22" t="s">
-        <v>845</v>
-      </c>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
       <c r="N36" s="40"/>
-      <c r="O36" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="P36" s="40" t="s">
-        <v>913</v>
-      </c>
+      <c r="O36" s="22"/>
+      <c r="P36" s="40"/>
       <c r="Q36" s="22"/>
       <c r="R36" s="23"/>
       <c r="S36" s="24"/>
@@ -9075,7 +8822,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="17">
         <v>30</v>
       </c>
@@ -9100,11 +8847,11 @@
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="36" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="O37" s="22"/>
       <c r="P37" s="22" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="Q37" s="22"/>
       <c r="R37" s="23"/>
@@ -9138,11 +8885,11 @@
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="36" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="O38" s="22"/>
       <c r="P38" s="22" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="Q38" s="22"/>
       <c r="R38" s="23"/>
@@ -9152,7 +8899,7 @@
       </c>
     </row>
     <row r="39" spans="1:20" ht="166.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="55">
+      <c r="A39" s="17">
         <v>32</v>
       </c>
       <c r="B39" s="18" t="s">
@@ -9171,13 +8918,13 @@
         <v>45271</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>945</v>
+        <v>881</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>947</v>
+        <v>883</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="J39" s="40" t="s">
         <v>136</v>
@@ -9194,7 +8941,7 @@
         <v>136</v>
       </c>
       <c r="P39" s="40" t="s">
-        <v>913</v>
+        <v>853</v>
       </c>
       <c r="Q39" s="22"/>
       <c r="R39" s="23"/>
@@ -9203,7 +8950,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="17">
         <v>33</v>
       </c>
@@ -9237,7 +8984,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="17">
         <v>34</v>
       </c>
@@ -9271,7 +9018,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="17">
         <v>35</v>
       </c>
@@ -9355,35 +9102,17 @@
       <c r="E44" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="F44" s="20">
-        <v>45208</v>
-      </c>
-      <c r="G44" s="38" t="s">
-        <v>917</v>
-      </c>
-      <c r="H44" s="21" t="s">
-        <v>918</v>
-      </c>
-      <c r="I44" s="39" t="s">
-        <v>861</v>
-      </c>
-      <c r="J44" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="F44" s="20"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="22"/>
       <c r="K44" s="22"/>
-      <c r="L44" s="22" t="s">
-        <v>845</v>
-      </c>
-      <c r="M44" s="22" t="s">
-        <v>845</v>
-      </c>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
       <c r="N44" s="40"/>
-      <c r="O44" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="P44" s="40" t="s">
-        <v>913</v>
-      </c>
+      <c r="O44" s="22"/>
+      <c r="P44" s="40"/>
       <c r="Q44" s="22"/>
       <c r="R44" s="23"/>
       <c r="S44" s="24"/>
@@ -9391,7 +9120,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="17">
         <v>38</v>
       </c>
@@ -9460,7 +9189,7 @@
       </c>
     </row>
     <row r="47" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="55">
+      <c r="A47" s="17">
         <v>40</v>
       </c>
       <c r="B47" s="18" t="s">
@@ -9479,13 +9208,13 @@
         <v>45271</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>946</v>
+        <v>882</v>
       </c>
       <c r="H47" s="38" t="s">
-        <v>948</v>
+        <v>884</v>
       </c>
       <c r="I47" s="21" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="J47" s="40" t="s">
         <v>136</v>
@@ -9502,7 +9231,7 @@
         <v>136</v>
       </c>
       <c r="P47" s="40" t="s">
-        <v>913</v>
+        <v>853</v>
       </c>
       <c r="Q47" s="22"/>
       <c r="R47" s="23"/>
@@ -9511,7 +9240,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="17">
         <v>41</v>
       </c>
@@ -9545,7 +9274,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="17">
         <v>42</v>
       </c>
@@ -9579,7 +9308,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="17">
         <v>43</v>
       </c>
@@ -9669,23 +9398,13 @@
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
-      <c r="J52" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="J52" s="22"/>
       <c r="K52" s="22"/>
-      <c r="L52" s="22" t="s">
-        <v>845</v>
-      </c>
-      <c r="M52" s="22" t="s">
-        <v>845</v>
-      </c>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
       <c r="N52" s="40"/>
-      <c r="O52" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="P52" s="40" t="s">
-        <v>914</v>
-      </c>
+      <c r="O52" s="22"/>
+      <c r="P52" s="40"/>
       <c r="Q52" s="22"/>
       <c r="R52" s="23" t="s">
         <v>136</v>
@@ -9695,7 +9414,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="17">
         <v>46</v>
       </c>
@@ -9768,7 +9487,7 @@
       </c>
     </row>
     <row r="55" spans="1:20" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="55">
+      <c r="A55" s="17">
         <v>48</v>
       </c>
       <c r="B55" s="18" t="s">
@@ -9804,7 +9523,7 @@
         <v>136</v>
       </c>
       <c r="P55" s="40" t="s">
-        <v>914</v>
+        <v>854</v>
       </c>
       <c r="Q55" s="22"/>
       <c r="R55" s="23" t="s">
@@ -9815,7 +9534,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="17">
         <v>49</v>
       </c>
@@ -9851,7 +9570,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="17">
         <v>50</v>
       </c>
@@ -9887,7 +9606,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="17">
         <v>51</v>
       </c>
@@ -10313,35 +10032,17 @@
       <c r="E70" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="F70" s="20">
-        <v>45209</v>
-      </c>
-      <c r="G70" s="21" t="s">
-        <v>864</v>
-      </c>
-      <c r="H70" s="21" t="s">
-        <v>865</v>
-      </c>
-      <c r="I70" s="21" t="s">
-        <v>866</v>
-      </c>
-      <c r="J70" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="F70" s="20"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="22"/>
       <c r="K70" s="22"/>
-      <c r="L70" s="22" t="s">
-        <v>845</v>
-      </c>
-      <c r="M70" s="22" t="s">
-        <v>845</v>
-      </c>
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
       <c r="N70" s="22"/>
-      <c r="O70" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="P70" s="22" t="s">
-        <v>905</v>
-      </c>
+      <c r="O70" s="22"/>
+      <c r="P70" s="22"/>
       <c r="Q70" s="22"/>
       <c r="R70" s="23"/>
       <c r="S70" s="24"/>
@@ -10365,37 +10066,17 @@
       <c r="E71" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="F71" s="20">
-        <v>45209</v>
-      </c>
-      <c r="G71" s="21" t="s">
-        <v>872</v>
-      </c>
-      <c r="H71" s="21" t="s">
-        <v>870</v>
-      </c>
-      <c r="I71" s="21" t="s">
-        <v>871</v>
-      </c>
-      <c r="J71" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="F71" s="20"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="22"/>
       <c r="K71" s="22"/>
-      <c r="L71" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="M71" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="N71" s="22" t="s">
-        <v>903</v>
-      </c>
-      <c r="O71" s="22" t="s">
-        <v>845</v>
-      </c>
-      <c r="P71" s="22" t="s">
-        <v>904</v>
-      </c>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="22"/>
+      <c r="P71" s="22"/>
       <c r="Q71" s="22"/>
       <c r="R71" s="23"/>
       <c r="S71" s="24"/>
@@ -10419,35 +10100,17 @@
       <c r="E72" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="F72" s="20">
-        <v>45209</v>
-      </c>
-      <c r="G72" s="21" t="s">
-        <v>874</v>
-      </c>
-      <c r="H72" s="21" t="s">
-        <v>873</v>
-      </c>
-      <c r="I72" s="21" t="s">
-        <v>875</v>
-      </c>
-      <c r="J72" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="F72" s="20"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="22"/>
       <c r="K72" s="22"/>
-      <c r="L72" s="22" t="s">
-        <v>845</v>
-      </c>
-      <c r="M72" s="22" t="s">
-        <v>845</v>
-      </c>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
       <c r="N72" s="22"/>
-      <c r="O72" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="P72" s="22" t="s">
-        <v>906</v>
-      </c>
+      <c r="O72" s="22"/>
+      <c r="P72" s="22"/>
       <c r="Q72" s="22"/>
       <c r="R72" s="23"/>
       <c r="S72" s="24"/>
@@ -10471,37 +10134,17 @@
       <c r="E73" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="F73" s="20">
-        <v>45209</v>
-      </c>
-      <c r="G73" s="21" t="s">
-        <v>876</v>
-      </c>
-      <c r="H73" s="21" t="s">
-        <v>877</v>
-      </c>
-      <c r="I73" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="J73" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="F73" s="20"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="22"/>
       <c r="K73" s="22"/>
-      <c r="L73" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="M73" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="N73" s="22" t="s">
-        <v>907</v>
-      </c>
-      <c r="O73" s="22" t="s">
-        <v>845</v>
-      </c>
-      <c r="P73" s="22" t="s">
-        <v>908</v>
-      </c>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="22"/>
       <c r="Q73" s="22"/>
       <c r="R73" s="23"/>
       <c r="S73" s="24"/>
@@ -10525,37 +10168,17 @@
       <c r="E74" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="F74" s="20">
-        <v>45209</v>
-      </c>
-      <c r="G74" s="21" t="s">
-        <v>879</v>
-      </c>
-      <c r="H74" s="21" t="s">
-        <v>880</v>
-      </c>
-      <c r="I74" s="21" t="s">
-        <v>881</v>
-      </c>
-      <c r="J74" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="F74" s="20"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="22"/>
       <c r="K74" s="22"/>
-      <c r="L74" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="M74" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="N74" s="22" t="s">
-        <v>909</v>
-      </c>
-      <c r="O74" s="22" t="s">
-        <v>845</v>
-      </c>
-      <c r="P74" s="22" t="s">
-        <v>908</v>
-      </c>
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="22"/>
+      <c r="P74" s="22"/>
       <c r="Q74" s="22"/>
       <c r="R74" s="23"/>
       <c r="S74" s="24"/>
@@ -10579,35 +10202,17 @@
       <c r="E75" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="F75" s="20">
-        <v>45209</v>
-      </c>
-      <c r="G75" s="21" t="s">
-        <v>883</v>
-      </c>
-      <c r="H75" s="21" t="s">
-        <v>882</v>
-      </c>
-      <c r="I75" s="21" t="s">
-        <v>884</v>
-      </c>
-      <c r="J75" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="F75" s="20"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="22"/>
       <c r="K75" s="22"/>
-      <c r="L75" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="M75" s="22" t="s">
-        <v>845</v>
-      </c>
+      <c r="L75" s="22"/>
+      <c r="M75" s="22"/>
       <c r="N75" s="22"/>
-      <c r="O75" s="22" t="s">
-        <v>845</v>
-      </c>
-      <c r="P75" s="22" t="s">
-        <v>910</v>
-      </c>
+      <c r="O75" s="22"/>
+      <c r="P75" s="22"/>
       <c r="Q75" s="22"/>
       <c r="R75" s="23"/>
       <c r="S75" s="24"/>
@@ -10631,35 +10236,17 @@
       <c r="E76" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="F76" s="20">
-        <v>45209</v>
-      </c>
-      <c r="G76" s="21" t="s">
-        <v>885</v>
-      </c>
-      <c r="H76" s="21" t="s">
-        <v>886</v>
-      </c>
-      <c r="I76" s="21" t="s">
-        <v>887</v>
-      </c>
-      <c r="J76" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="F76" s="20"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="22"/>
       <c r="K76" s="22"/>
-      <c r="L76" s="22" t="s">
-        <v>845</v>
-      </c>
-      <c r="M76" s="22" t="s">
-        <v>845</v>
-      </c>
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
       <c r="N76" s="22"/>
-      <c r="O76" s="22" t="s">
-        <v>845</v>
-      </c>
-      <c r="P76" s="22" t="s">
-        <v>911</v>
-      </c>
+      <c r="O76" s="22"/>
+      <c r="P76" s="22"/>
       <c r="Q76" s="22"/>
       <c r="R76" s="23"/>
       <c r="S76" s="24"/>
@@ -10683,35 +10270,17 @@
       <c r="E77" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="F77" s="20">
-        <v>45209</v>
-      </c>
-      <c r="G77" s="21" t="s">
-        <v>888</v>
-      </c>
-      <c r="H77" s="21" t="s">
-        <v>889</v>
-      </c>
-      <c r="I77" s="21" t="s">
-        <v>890</v>
-      </c>
-      <c r="J77" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="F77" s="20"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="22"/>
       <c r="K77" s="22"/>
-      <c r="L77" s="22" t="s">
-        <v>845</v>
-      </c>
-      <c r="M77" s="22" t="s">
-        <v>845</v>
-      </c>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
       <c r="N77" s="22"/>
-      <c r="O77" s="22" t="s">
-        <v>845</v>
-      </c>
-      <c r="P77" s="22" t="s">
-        <v>911</v>
-      </c>
+      <c r="O77" s="22"/>
+      <c r="P77" s="22"/>
       <c r="Q77" s="22"/>
       <c r="R77" s="23"/>
       <c r="S77" s="24"/>
@@ -10735,35 +10304,17 @@
       <c r="E78" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="F78" s="20">
-        <v>45209</v>
-      </c>
-      <c r="G78" s="21" t="s">
-        <v>891</v>
-      </c>
-      <c r="H78" s="21" t="s">
-        <v>892</v>
-      </c>
-      <c r="I78" s="21" t="s">
-        <v>893</v>
-      </c>
-      <c r="J78" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="F78" s="20"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="22"/>
       <c r="K78" s="22"/>
-      <c r="L78" s="22" t="s">
-        <v>845</v>
-      </c>
-      <c r="M78" s="22" t="s">
-        <v>845</v>
-      </c>
+      <c r="L78" s="22"/>
+      <c r="M78" s="22"/>
       <c r="N78" s="22"/>
-      <c r="O78" s="22" t="s">
-        <v>845</v>
-      </c>
-      <c r="P78" s="22" t="s">
-        <v>911</v>
-      </c>
+      <c r="O78" s="22"/>
+      <c r="P78" s="22"/>
       <c r="Q78" s="22"/>
       <c r="R78" s="23"/>
       <c r="S78" s="24"/>
@@ -10787,35 +10338,17 @@
       <c r="E79" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="F79" s="20">
-        <v>45209</v>
-      </c>
-      <c r="G79" s="21" t="s">
-        <v>894</v>
-      </c>
-      <c r="H79" s="21" t="s">
-        <v>895</v>
-      </c>
-      <c r="I79" s="21" t="s">
-        <v>896</v>
-      </c>
-      <c r="J79" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="F79" s="20"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="22"/>
       <c r="K79" s="22"/>
-      <c r="L79" s="22" t="s">
-        <v>845</v>
-      </c>
-      <c r="M79" s="22" t="s">
-        <v>845</v>
-      </c>
+      <c r="L79" s="22"/>
+      <c r="M79" s="22"/>
       <c r="N79" s="22"/>
-      <c r="O79" s="22" t="s">
-        <v>845</v>
-      </c>
-      <c r="P79" s="22" t="s">
-        <v>911</v>
-      </c>
+      <c r="O79" s="22"/>
+      <c r="P79" s="22"/>
       <c r="Q79" s="22"/>
       <c r="R79" s="23"/>
       <c r="S79" s="24"/>
@@ -10839,35 +10372,17 @@
       <c r="E80" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="F80" s="20">
-        <v>45209</v>
-      </c>
-      <c r="G80" s="21" t="s">
-        <v>897</v>
-      </c>
-      <c r="H80" s="21" t="s">
-        <v>898</v>
-      </c>
-      <c r="I80" s="21" t="s">
-        <v>899</v>
-      </c>
-      <c r="J80" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="F80" s="20"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="22"/>
       <c r="K80" s="22"/>
-      <c r="L80" s="22" t="s">
-        <v>845</v>
-      </c>
-      <c r="M80" s="22" t="s">
-        <v>845</v>
-      </c>
+      <c r="L80" s="22"/>
+      <c r="M80" s="22"/>
       <c r="N80" s="22"/>
-      <c r="O80" s="22" t="s">
-        <v>845</v>
-      </c>
-      <c r="P80" s="22" t="s">
-        <v>912</v>
-      </c>
+      <c r="O80" s="22"/>
+      <c r="P80" s="22"/>
       <c r="Q80" s="22"/>
       <c r="R80" s="23"/>
       <c r="S80" s="24"/>
@@ -10891,35 +10406,17 @@
       <c r="E81" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="F81" s="20">
-        <v>45209</v>
-      </c>
-      <c r="G81" s="21" t="s">
-        <v>868</v>
-      </c>
-      <c r="H81" s="21" t="s">
-        <v>867</v>
-      </c>
-      <c r="I81" s="21" t="s">
-        <v>869</v>
-      </c>
-      <c r="J81" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="F81" s="20"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="22"/>
       <c r="K81" s="22"/>
-      <c r="L81" s="22" t="s">
-        <v>845</v>
-      </c>
-      <c r="M81" s="22" t="s">
-        <v>845</v>
-      </c>
+      <c r="L81" s="22"/>
+      <c r="M81" s="22"/>
       <c r="N81" s="22"/>
-      <c r="O81" s="22" t="s">
-        <v>845</v>
-      </c>
-      <c r="P81" s="22" t="s">
-        <v>911</v>
-      </c>
+      <c r="O81" s="22"/>
+      <c r="P81" s="22"/>
       <c r="Q81" s="22"/>
       <c r="R81" s="23"/>
       <c r="S81" s="24"/>
@@ -11573,7 +11070,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="17">
         <v>94</v>
       </c>
@@ -11607,7 +11104,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="17">
         <v>95</v>
       </c>
@@ -11641,7 +11138,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="17">
         <v>96</v>
       </c>
@@ -11675,7 +11172,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="17">
         <v>97</v>
       </c>
@@ -11709,7 +11206,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="17">
         <v>98</v>
       </c>
@@ -11743,7 +11240,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="17">
         <v>99</v>
       </c>
@@ -11777,7 +11274,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="17">
         <v>100</v>
       </c>
@@ -11811,7 +11308,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="17">
         <v>101</v>
       </c>
@@ -11845,7 +11342,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="17">
         <v>102</v>
       </c>
@@ -11879,7 +11376,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="17">
         <v>103</v>
       </c>
@@ -11913,7 +11410,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="17">
         <v>104</v>
       </c>
@@ -11947,7 +11444,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="17">
         <v>105</v>
       </c>
@@ -11981,7 +11478,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="17">
         <v>106</v>
       </c>
@@ -12015,7 +11512,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="17">
         <v>107</v>
       </c>
@@ -12049,7 +11546,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="17">
         <v>108</v>
       </c>
@@ -12083,7 +11580,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="17">
         <v>109</v>
       </c>
@@ -12117,7 +11614,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="17">
         <v>110</v>
       </c>
@@ -12151,7 +11648,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="17">
         <v>111</v>
       </c>
@@ -12185,7 +11682,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="17">
         <v>112</v>
       </c>
@@ -12219,7 +11716,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="17">
         <v>113</v>
       </c>
@@ -12253,7 +11750,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="17">
         <v>114</v>
       </c>
@@ -12287,7 +11784,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="17">
         <v>115</v>
       </c>
@@ -12321,7 +11818,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="17">
         <v>116</v>
       </c>
@@ -12355,7 +11852,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="17">
         <v>117</v>
       </c>
@@ -12389,7 +11886,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="17">
         <v>118</v>
       </c>
@@ -12423,7 +11920,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="17">
         <v>119</v>
       </c>
@@ -12457,7 +11954,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="17">
         <v>120</v>
       </c>
@@ -12491,7 +11988,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="17">
         <v>121</v>
       </c>
@@ -12525,7 +12022,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="17">
         <v>122</v>
       </c>
@@ -12559,7 +12056,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="17">
         <v>123</v>
       </c>
@@ -12593,7 +12090,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="17">
         <v>124</v>
       </c>
@@ -12627,7 +12124,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="17">
         <v>125</v>
       </c>
@@ -12661,7 +12158,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="17">
         <v>126</v>
       </c>
@@ -12695,7 +12192,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="17">
         <v>127</v>
       </c>
@@ -12729,7 +12226,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="17">
         <v>128</v>
       </c>
@@ -12763,7 +12260,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="17">
         <v>129</v>
       </c>
@@ -12797,7 +12294,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="17">
         <v>130</v>
       </c>
@@ -12831,7 +12328,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="17">
         <v>131</v>
       </c>
@@ -12865,7 +12362,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="17">
         <v>132</v>
       </c>
@@ -12899,7 +12396,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="17">
         <v>133</v>
       </c>
@@ -12933,7 +12430,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="17">
         <v>134</v>
       </c>
@@ -12967,7 +12464,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="17">
         <v>135</v>
       </c>
@@ -13001,7 +12498,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="17">
         <v>136</v>
       </c>
@@ -13035,7 +12532,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="17">
         <v>137</v>
       </c>
@@ -13069,7 +12566,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="17">
         <v>138</v>
       </c>
@@ -13103,7 +12600,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="17">
         <v>139</v>
       </c>
@@ -13137,7 +12634,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="17">
         <v>140</v>
       </c>
@@ -13171,7 +12668,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="17">
         <v>141</v>
       </c>
@@ -13205,7 +12702,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="17">
         <v>142</v>
       </c>
@@ -13239,7 +12736,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="17">
         <v>143</v>
       </c>
@@ -13273,7 +12770,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="17">
         <v>144</v>
       </c>
@@ -13307,7 +12804,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="17">
         <v>145</v>
       </c>
@@ -13341,7 +12838,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="17">
         <v>146</v>
       </c>
@@ -13376,7 +12873,7 @@
       </c>
     </row>
     <row r="154" spans="1:20" ht="159" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="55">
+      <c r="A154" s="17">
         <v>147</v>
       </c>
       <c r="B154" s="18" t="s">
@@ -13395,13 +12892,13 @@
         <v>45266</v>
       </c>
       <c r="G154" s="21" t="s">
-        <v>921</v>
+        <v>857</v>
       </c>
       <c r="H154" s="21" t="s">
-        <v>922</v>
+        <v>858</v>
       </c>
       <c r="I154" s="21" t="s">
-        <v>923</v>
+        <v>859</v>
       </c>
       <c r="J154" s="40" t="s">
         <v>136</v>
@@ -13420,7 +12917,7 @@
       </c>
     </row>
     <row r="155" spans="1:20" ht="159" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="55">
+      <c r="A155" s="17">
         <v>148</v>
       </c>
       <c r="B155" s="18" t="s">
@@ -13439,13 +12936,13 @@
         <v>45266</v>
       </c>
       <c r="G155" s="21" t="s">
-        <v>924</v>
+        <v>860</v>
       </c>
       <c r="H155" s="21" t="s">
-        <v>925</v>
+        <v>861</v>
       </c>
       <c r="I155" s="21" t="s">
-        <v>926</v>
+        <v>862</v>
       </c>
       <c r="J155" s="40" t="s">
         <v>136</v>
@@ -13464,7 +12961,7 @@
       </c>
     </row>
     <row r="156" spans="1:20" ht="159" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="55">
+      <c r="A156" s="17">
         <v>149</v>
       </c>
       <c r="B156" s="18" t="s">
@@ -13483,13 +12980,13 @@
         <v>45266</v>
       </c>
       <c r="G156" s="21" t="s">
-        <v>927</v>
+        <v>863</v>
       </c>
       <c r="H156" s="21" t="s">
-        <v>928</v>
+        <v>864</v>
       </c>
       <c r="I156" s="21" t="s">
-        <v>929</v>
+        <v>865</v>
       </c>
       <c r="J156" s="40" t="s">
         <v>136</v>
@@ -13508,7 +13005,7 @@
       </c>
     </row>
     <row r="157" spans="1:20" ht="159" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="55">
+      <c r="A157" s="17">
         <v>150</v>
       </c>
       <c r="B157" s="18" t="s">
@@ -13527,13 +13024,13 @@
         <v>45266</v>
       </c>
       <c r="G157" s="21" t="s">
-        <v>930</v>
+        <v>866</v>
       </c>
       <c r="H157" s="21" t="s">
-        <v>931</v>
+        <v>867</v>
       </c>
       <c r="I157" s="21" t="s">
-        <v>932</v>
+        <v>868</v>
       </c>
       <c r="J157" s="40" t="s">
         <v>136</v>
@@ -13552,7 +13049,7 @@
       </c>
     </row>
     <row r="158" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="55">
+      <c r="A158" s="17">
         <v>151</v>
       </c>
       <c r="B158" s="18" t="s">
@@ -13575,7 +13072,7 @@
         <v>845</v>
       </c>
       <c r="K158" s="22" t="s">
-        <v>959</v>
+        <v>895</v>
       </c>
       <c r="L158" s="40"/>
       <c r="M158" s="40"/>
@@ -13590,7 +13087,7 @@
       </c>
     </row>
     <row r="159" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="55">
+      <c r="A159" s="17">
         <v>152</v>
       </c>
       <c r="B159" s="18" t="s">
@@ -13613,7 +13110,7 @@
         <v>845</v>
       </c>
       <c r="K159" s="22" t="s">
-        <v>951</v>
+        <v>887</v>
       </c>
       <c r="L159" s="40"/>
       <c r="M159" s="40"/>
@@ -13628,7 +13125,7 @@
       </c>
     </row>
     <row r="160" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="55">
+      <c r="A160" s="17">
         <v>153</v>
       </c>
       <c r="B160" s="18" t="s">
@@ -13651,7 +13148,7 @@
         <v>845</v>
       </c>
       <c r="K160" s="22" t="s">
-        <v>960</v>
+        <v>896</v>
       </c>
       <c r="L160" s="40"/>
       <c r="M160" s="40"/>
@@ -13666,7 +13163,7 @@
       </c>
     </row>
     <row r="161" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="55">
+      <c r="A161" s="17">
         <v>154</v>
       </c>
       <c r="B161" s="18" t="s">
@@ -13689,7 +13186,7 @@
         <v>845</v>
       </c>
       <c r="K161" s="22" t="s">
-        <v>952</v>
+        <v>888</v>
       </c>
       <c r="L161" s="40"/>
       <c r="M161" s="40"/>
@@ -13704,7 +13201,7 @@
       </c>
     </row>
     <row r="162" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="55">
+      <c r="A162" s="17">
         <v>155</v>
       </c>
       <c r="B162" s="18" t="s">
@@ -13727,7 +13224,7 @@
         <v>845</v>
       </c>
       <c r="K162" s="22" t="s">
-        <v>953</v>
+        <v>889</v>
       </c>
       <c r="L162" s="40"/>
       <c r="M162" s="40"/>
@@ -13742,7 +13239,7 @@
       </c>
     </row>
     <row r="163" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="55">
+      <c r="A163" s="17">
         <v>156</v>
       </c>
       <c r="B163" s="18" t="s">
@@ -13765,7 +13262,7 @@
         <v>845</v>
       </c>
       <c r="K163" s="22" t="s">
-        <v>910</v>
+        <v>852</v>
       </c>
       <c r="L163" s="40"/>
       <c r="M163" s="40"/>
@@ -13780,7 +13277,7 @@
       </c>
     </row>
     <row r="164" spans="1:20" ht="122.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="55">
+      <c r="A164" s="17">
         <v>157</v>
       </c>
       <c r="B164" s="18" t="s">
@@ -13803,7 +13300,7 @@
         <v>845</v>
       </c>
       <c r="K164" s="22" t="s">
-        <v>949</v>
+        <v>885</v>
       </c>
       <c r="L164" s="40"/>
       <c r="M164" s="40"/>
@@ -13818,7 +13315,7 @@
       </c>
     </row>
     <row r="165" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="55">
+      <c r="A165" s="17">
         <v>158</v>
       </c>
       <c r="B165" s="18" t="s">
@@ -13841,7 +13338,7 @@
         <v>845</v>
       </c>
       <c r="K165" s="22" t="s">
-        <v>950</v>
+        <v>886</v>
       </c>
       <c r="L165" s="40"/>
       <c r="M165" s="40"/>
@@ -13856,7 +13353,7 @@
       </c>
     </row>
     <row r="166" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="55">
+      <c r="A166" s="17">
         <v>159</v>
       </c>
       <c r="B166" s="18" t="s">
@@ -13879,7 +13376,7 @@
         <v>845</v>
       </c>
       <c r="K166" s="22" t="s">
-        <v>954</v>
+        <v>890</v>
       </c>
       <c r="L166" s="40"/>
       <c r="M166" s="40"/>
@@ -13894,7 +13391,7 @@
       </c>
     </row>
     <row r="167" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="55">
+      <c r="A167" s="17">
         <v>160</v>
       </c>
       <c r="B167" s="18" t="s">
@@ -13917,7 +13414,7 @@
         <v>845</v>
       </c>
       <c r="K167" s="22" t="s">
-        <v>955</v>
+        <v>891</v>
       </c>
       <c r="L167" s="40"/>
       <c r="M167" s="40"/>
@@ -13932,7 +13429,7 @@
       </c>
     </row>
     <row r="168" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="55">
+      <c r="A168" s="17">
         <v>161</v>
       </c>
       <c r="B168" s="18" t="s">
@@ -13955,7 +13452,7 @@
         <v>845</v>
       </c>
       <c r="K168" s="22" t="s">
-        <v>961</v>
+        <v>897</v>
       </c>
       <c r="L168" s="40"/>
       <c r="M168" s="40"/>
@@ -13970,7 +13467,7 @@
       </c>
     </row>
     <row r="169" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="55">
+      <c r="A169" s="17">
         <v>162</v>
       </c>
       <c r="B169" s="18" t="s">
@@ -13993,7 +13490,7 @@
         <v>845</v>
       </c>
       <c r="K169" s="22" t="s">
-        <v>955</v>
+        <v>891</v>
       </c>
       <c r="L169" s="40"/>
       <c r="M169" s="40"/>
@@ -14008,7 +13505,7 @@
       </c>
     </row>
     <row r="170" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="55">
+      <c r="A170" s="17">
         <v>163</v>
       </c>
       <c r="B170" s="18" t="s">
@@ -14031,7 +13528,7 @@
         <v>845</v>
       </c>
       <c r="K170" s="22" t="s">
-        <v>956</v>
+        <v>892</v>
       </c>
       <c r="L170" s="40"/>
       <c r="M170" s="40"/>
@@ -14046,7 +13543,7 @@
       </c>
     </row>
     <row r="171" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="55">
+      <c r="A171" s="17">
         <v>164</v>
       </c>
       <c r="B171" s="18" t="s">
@@ -14069,7 +13566,7 @@
         <v>845</v>
       </c>
       <c r="K171" s="22" t="s">
-        <v>957</v>
+        <v>893</v>
       </c>
       <c r="L171" s="40"/>
       <c r="M171" s="40"/>
@@ -14084,7 +13581,7 @@
       </c>
     </row>
     <row r="172" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="55">
+      <c r="A172" s="17">
         <v>165</v>
       </c>
       <c r="B172" s="18" t="s">
@@ -14103,13 +13600,13 @@
         <v>45267</v>
       </c>
       <c r="G172" s="21" t="s">
-        <v>933</v>
+        <v>869</v>
       </c>
       <c r="H172" s="21" t="s">
-        <v>934</v>
+        <v>870</v>
       </c>
       <c r="I172" s="21" t="s">
-        <v>935</v>
+        <v>871</v>
       </c>
       <c r="J172" s="40" t="s">
         <v>136</v>
@@ -14126,7 +13623,7 @@
         <v>136</v>
       </c>
       <c r="P172" s="40" t="s">
-        <v>913</v>
+        <v>853</v>
       </c>
       <c r="Q172" s="22"/>
       <c r="R172" s="23"/>
@@ -14136,7 +13633,7 @@
       </c>
     </row>
     <row r="173" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="55">
+      <c r="A173" s="17">
         <v>166</v>
       </c>
       <c r="B173" s="18" t="s">
@@ -14155,13 +13652,13 @@
         <v>45267</v>
       </c>
       <c r="G173" s="21" t="s">
-        <v>936</v>
+        <v>872</v>
       </c>
       <c r="H173" s="21" t="s">
-        <v>937</v>
+        <v>873</v>
       </c>
       <c r="I173" s="21" t="s">
-        <v>938</v>
+        <v>874</v>
       </c>
       <c r="J173" s="40" t="s">
         <v>136</v>
@@ -14178,7 +13675,7 @@
         <v>136</v>
       </c>
       <c r="P173" s="40" t="s">
-        <v>913</v>
+        <v>853</v>
       </c>
       <c r="Q173" s="22"/>
       <c r="R173" s="23"/>
@@ -14188,7 +13685,7 @@
       </c>
     </row>
     <row r="174" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="55">
+      <c r="A174" s="17">
         <v>167</v>
       </c>
       <c r="B174" s="18" t="s">
@@ -14207,13 +13704,13 @@
         <v>45267</v>
       </c>
       <c r="G174" s="21" t="s">
-        <v>939</v>
+        <v>875</v>
       </c>
       <c r="H174" s="21" t="s">
-        <v>940</v>
+        <v>876</v>
       </c>
       <c r="I174" s="21" t="s">
-        <v>941</v>
+        <v>877</v>
       </c>
       <c r="J174" s="40" t="s">
         <v>136</v>
@@ -14230,7 +13727,7 @@
         <v>136</v>
       </c>
       <c r="P174" s="40" t="s">
-        <v>913</v>
+        <v>853</v>
       </c>
       <c r="Q174" s="22"/>
       <c r="R174" s="23"/>
@@ -14240,7 +13737,7 @@
       </c>
     </row>
     <row r="175" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="55">
+      <c r="A175" s="17">
         <v>168</v>
       </c>
       <c r="B175" s="18" t="s">
@@ -14263,7 +13760,7 @@
         <v>845</v>
       </c>
       <c r="K175" s="22" t="s">
-        <v>958</v>
+        <v>894</v>
       </c>
       <c r="L175" s="40"/>
       <c r="M175" s="40"/>
@@ -14278,7 +13775,7 @@
       </c>
     </row>
     <row r="176" spans="1:20" ht="159" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="55">
+      <c r="A176" s="17">
         <v>169</v>
       </c>
       <c r="B176" s="18" t="s">
@@ -14297,13 +13794,13 @@
         <v>45274</v>
       </c>
       <c r="G176" s="21" t="s">
-        <v>962</v>
+        <v>898</v>
       </c>
       <c r="H176" s="21" t="s">
-        <v>963</v>
+        <v>899</v>
       </c>
       <c r="I176" s="21" t="s">
-        <v>964</v>
+        <v>900</v>
       </c>
       <c r="J176" s="40" t="s">
         <v>136</v>
@@ -14316,13 +13813,13 @@
         <v>136</v>
       </c>
       <c r="N176" s="22" t="s">
-        <v>965</v>
+        <v>901</v>
       </c>
       <c r="O176" s="22" t="s">
         <v>136</v>
       </c>
       <c r="P176" s="22" t="s">
-        <v>966</v>
+        <v>902</v>
       </c>
       <c r="Q176" s="22"/>
       <c r="R176" s="23"/>
@@ -14331,7 +13828,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="17">
         <v>170</v>
       </c>
@@ -14365,7 +13862,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="17">
         <v>171</v>
       </c>
@@ -14399,7 +13896,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="17">
         <v>172</v>
       </c>
@@ -14433,7 +13930,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="17">
         <v>173</v>
       </c>
@@ -14467,7 +13964,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="17">
         <v>174</v>
       </c>
@@ -14501,7 +13998,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="17">
         <v>175</v>
       </c>
@@ -14535,7 +14032,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="17">
         <v>176</v>
       </c>
@@ -14569,7 +14066,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="17">
         <v>177</v>
       </c>
@@ -14603,7 +14100,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="17">
         <v>178</v>
       </c>
@@ -14637,7 +14134,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="17">
         <v>179</v>
       </c>
@@ -14671,7 +14168,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="17">
         <v>180</v>
       </c>
@@ -14705,7 +14202,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="17">
         <v>181</v>
       </c>
@@ -14739,7 +14236,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="17">
         <v>182</v>
       </c>
@@ -14773,7 +14270,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="17">
         <v>183</v>
       </c>
@@ -14807,7 +14304,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="17">
         <v>184</v>
       </c>
@@ -14841,7 +14338,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="17">
         <v>185</v>
       </c>
@@ -14875,7 +14372,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="17">
         <v>186</v>
       </c>
@@ -14909,7 +14406,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="17">
         <v>187</v>
       </c>
@@ -14943,7 +14440,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="17">
         <v>188</v>
       </c>
@@ -14977,7 +14474,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="17">
         <v>189</v>
       </c>
@@ -15011,7 +14508,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="17">
         <v>190</v>
       </c>
@@ -15079,7 +14576,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="241.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:20" ht="241.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="17">
         <v>192</v>
       </c>
@@ -15113,7 +14610,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="301.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:20" ht="301.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="17">
         <v>193</v>
       </c>
@@ -15147,7 +14644,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="17">
         <v>194</v>
       </c>
@@ -15181,7 +14678,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="17">
         <v>195</v>
       </c>
@@ -15215,7 +14712,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="17">
         <v>196</v>
       </c>
@@ -15249,7 +14746,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="17">
         <v>197</v>
       </c>
@@ -15283,7 +14780,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="17">
         <v>198</v>
       </c>
@@ -15317,7 +14814,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="17">
         <v>199</v>
       </c>
@@ -15351,7 +14848,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="17">
         <v>200</v>
       </c>
@@ -15385,7 +14882,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="17">
         <v>201</v>
       </c>
@@ -15419,7 +14916,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="17">
         <v>202</v>
       </c>
@@ -15453,7 +14950,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="17">
         <v>203</v>
       </c>
@@ -15487,7 +14984,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="17">
         <v>204</v>
       </c>
@@ -15521,7 +15018,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="17">
         <v>205</v>
       </c>
@@ -15555,7 +15052,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="17">
         <v>206</v>
       </c>
@@ -15589,7 +15086,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="17">
         <v>207</v>
       </c>
@@ -15623,7 +15120,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:20" ht="236.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="17">
         <v>208</v>
       </c>
@@ -15657,7 +15154,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="17">
         <v>209</v>
       </c>
@@ -15691,7 +15188,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="284.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:20" ht="284.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="17">
         <v>210</v>
       </c>
@@ -15725,7 +15222,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="17">
         <v>211</v>
       </c>
@@ -15759,7 +15256,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="267.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:20" ht="267.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="17">
         <v>212</v>
       </c>
@@ -15793,7 +15290,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="17">
         <v>213</v>
       </c>
@@ -15827,7 +15324,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="17">
         <v>214</v>
       </c>
@@ -15861,7 +15358,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="17">
         <v>215</v>
       </c>
@@ -15895,7 +15392,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="17">
         <v>216</v>
       </c>
@@ -15929,7 +15426,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="17">
         <v>217</v>
       </c>
@@ -15963,7 +15460,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="17">
         <v>218</v>
       </c>
@@ -15997,7 +15494,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="17">
         <v>219</v>
       </c>
@@ -16031,7 +15528,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="17">
         <v>220</v>
       </c>
@@ -16065,7 +15562,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="268.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:20" ht="268.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="17">
         <v>221</v>
       </c>
@@ -16099,7 +15596,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="17">
         <v>222</v>
       </c>
@@ -16133,7 +15630,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="17">
         <v>223</v>
       </c>
@@ -16167,7 +15664,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="204" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:20" ht="204" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="17">
         <v>224</v>
       </c>
@@ -16201,7 +15698,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="17">
         <v>225</v>
       </c>
@@ -16235,7 +15732,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="17">
         <v>226</v>
       </c>
@@ -16269,7 +15766,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="17">
         <v>227</v>
       </c>
@@ -16303,7 +15800,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="17">
         <v>228</v>
       </c>
@@ -16337,7 +15834,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="17">
         <v>229</v>
       </c>
@@ -16371,7 +15868,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="17">
         <v>230</v>
       </c>
@@ -16405,7 +15902,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="17">
         <v>231</v>
       </c>
@@ -16439,7 +15936,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="17">
         <v>232</v>
       </c>
@@ -16473,7 +15970,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="17">
         <v>233</v>
       </c>
@@ -16507,7 +16004,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="17">
         <v>234</v>
       </c>
@@ -16541,7 +16038,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="17">
         <v>235</v>
       </c>
@@ -16575,7 +16072,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="17">
         <v>236</v>
       </c>
@@ -16609,7 +16106,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="17">
         <v>237</v>
       </c>
@@ -16643,7 +16140,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="17">
         <v>238</v>
       </c>
@@ -16677,7 +16174,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="17">
         <v>239</v>
       </c>
@@ -16711,7 +16208,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="17">
         <v>240</v>
       </c>
@@ -16745,7 +16242,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="17">
         <v>241</v>
       </c>
@@ -16779,7 +16276,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="17">
         <v>242</v>
       </c>
@@ -16813,7 +16310,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="17">
         <v>243</v>
       </c>
@@ -16847,7 +16344,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="17">
         <v>244</v>
       </c>
@@ -16881,7 +16378,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="17">
         <v>245</v>
       </c>
@@ -16915,7 +16412,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="17">
         <v>246</v>
       </c>
@@ -16949,7 +16446,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="17">
         <v>247</v>
       </c>
@@ -16983,7 +16480,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="17">
         <v>248</v>
       </c>
@@ -17017,7 +16514,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="17">
         <v>249</v>
       </c>
@@ -17051,7 +16548,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="17">
         <v>250</v>
       </c>
@@ -17085,7 +16582,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="17">
         <v>251</v>
       </c>
@@ -17119,7 +16616,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="17">
         <v>252</v>
       </c>
@@ -17153,7 +16650,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="17">
         <v>253</v>
       </c>
@@ -17187,7 +16684,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="17">
         <v>254</v>
       </c>
@@ -17221,7 +16718,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="17">
         <v>255</v>
       </c>
@@ -17255,7 +16752,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="17">
         <v>256</v>
       </c>
@@ -17289,7 +16786,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="17">
         <v>257</v>
       </c>
@@ -17323,7 +16820,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="17">
         <v>258</v>
       </c>
@@ -17357,7 +16854,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="17">
         <v>259</v>
       </c>
@@ -17391,7 +16888,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="17">
         <v>260</v>
       </c>
@@ -17425,7 +16922,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="268" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="17">
         <v>261</v>
       </c>
@@ -17459,7 +16956,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="17">
         <v>262</v>
       </c>
@@ -17493,7 +16990,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="17">
         <v>263</v>
       </c>
@@ -17527,7 +17024,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="17">
         <v>264</v>
       </c>
@@ -17561,7 +17058,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="272" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="17">
         <v>265</v>
       </c>
@@ -17595,7 +17092,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="17">
         <v>266</v>
       </c>
@@ -17629,7 +17126,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="17">
         <v>267</v>
       </c>
@@ -17663,7 +17160,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="275" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="17">
         <v>268</v>
       </c>
@@ -17697,7 +17194,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="276" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="17">
         <v>269</v>
       </c>
@@ -17731,7 +17228,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="17">
         <v>270</v>
       </c>
@@ -17765,7 +17262,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="17">
         <v>271</v>
       </c>
@@ -17799,7 +17296,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="237" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:20" ht="237" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="17">
         <v>272</v>
       </c>
@@ -17833,7 +17330,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="17">
         <v>273</v>
       </c>
@@ -17867,7 +17364,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="281" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="17">
         <v>274</v>
       </c>
@@ -17901,7 +17398,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="17">
         <v>275</v>
       </c>
@@ -17935,7 +17432,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="283" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="17">
         <v>276</v>
       </c>
@@ -17969,7 +17466,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="284" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="17">
         <v>277</v>
       </c>
@@ -18003,7 +17500,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="285" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="17">
         <v>278</v>
       </c>
@@ -18037,7 +17534,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="286" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="17">
         <v>279</v>
       </c>
@@ -18071,7 +17568,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="287" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="17">
         <v>280</v>
       </c>
@@ -18105,7 +17602,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="288" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="17">
         <v>281</v>
       </c>
@@ -18139,7 +17636,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="289" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="17">
         <v>282</v>
       </c>
@@ -18173,7 +17670,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="290" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="17">
         <v>283</v>
       </c>
@@ -18207,7 +17704,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="291" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="17">
         <v>284</v>
       </c>
@@ -18241,7 +17738,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="292" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="17">
         <v>285</v>
       </c>
@@ -18275,7 +17772,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="293" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="17">
         <v>286</v>
       </c>
@@ -18309,7 +17806,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="294" spans="1:20" ht="263.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:20" ht="263.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="17">
         <v>287</v>
       </c>
@@ -18343,7 +17840,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="295" spans="1:20" ht="264" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:20" ht="264" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="17">
         <v>288</v>
       </c>
@@ -18377,7 +17874,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="296" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="17">
         <v>289</v>
       </c>
@@ -18411,7 +17908,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="297" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="17">
         <v>290</v>
       </c>
@@ -18445,7 +17942,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="298" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="17">
         <v>291</v>
       </c>
@@ -18479,7 +17976,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="299" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="17">
         <v>292</v>
       </c>
@@ -18513,7 +18010,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="300" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="17">
         <v>293</v>
       </c>
@@ -18547,7 +18044,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="301" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="17">
         <v>294</v>
       </c>
@@ -18581,7 +18078,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="302" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="17">
         <v>295</v>
       </c>
@@ -18615,7 +18112,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="303" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="17">
         <v>296</v>
       </c>
@@ -18649,7 +18146,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="304" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="17">
         <v>297</v>
       </c>
@@ -18683,7 +18180,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="305" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="17">
         <v>298</v>
       </c>
@@ -18717,7 +18214,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="306" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="17">
         <v>299</v>
       </c>
@@ -18751,7 +18248,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="307" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="17">
         <v>300</v>
       </c>
@@ -18785,7 +18282,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="308" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="17">
         <v>301</v>
       </c>
@@ -18819,7 +18316,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="309" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="17">
         <v>302</v>
       </c>
@@ -18853,7 +18350,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="310" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="17">
         <v>303</v>
       </c>
@@ -18887,7 +18384,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="311" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="17">
         <v>304</v>
       </c>
@@ -18921,7 +18418,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="312" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="17">
         <v>305</v>
       </c>
@@ -18955,7 +18452,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="313" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="17">
         <v>306</v>
       </c>
@@ -18989,7 +18486,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="314" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="17">
         <v>307</v>
       </c>
@@ -19023,7 +18520,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="315" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="17">
         <v>308</v>
       </c>
@@ -19057,7 +18554,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="316" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="17">
         <v>309</v>
       </c>
@@ -19091,7 +18588,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="317" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="17">
         <v>310</v>
       </c>
@@ -19125,7 +18622,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="318" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="17">
         <v>311</v>
       </c>
@@ -19159,7 +18656,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="319" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="17">
         <v>312</v>
       </c>
@@ -19193,7 +18690,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="320" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="17">
         <v>313</v>
       </c>
@@ -19227,7 +18724,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="321" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="17">
         <v>314</v>
       </c>
@@ -19261,7 +18758,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="322" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="17">
         <v>315</v>
       </c>
@@ -19295,7 +18792,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="323" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="17">
         <v>316</v>
       </c>
@@ -19329,7 +18826,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="324" spans="1:20" ht="253.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:20" ht="253.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="17">
         <v>317</v>
       </c>
@@ -19363,7 +18860,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="325" spans="1:20" ht="282.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:20" ht="282.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="17">
         <v>318</v>
       </c>
@@ -19397,7 +18894,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="326" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:20" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="17">
         <v>319</v>
       </c>
@@ -19431,7 +18928,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="327" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="17">
         <v>320</v>
       </c>
@@ -19465,7 +18962,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="328" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="17">
         <v>321</v>
       </c>
@@ -19499,7 +18996,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="329" spans="1:20" ht="315" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:20" ht="315" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="17">
         <v>322</v>
       </c>
@@ -19533,7 +19030,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="330" spans="1:20" ht="259.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:20" ht="259.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="17">
         <v>323</v>
       </c>
@@ -19567,7 +19064,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="331" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="17">
         <v>324</v>
       </c>
@@ -19601,7 +19098,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="332" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="17">
         <v>325</v>
       </c>
@@ -19635,7 +19132,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="333" spans="1:20" ht="315" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:20" ht="315" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="17">
         <v>326</v>
       </c>
@@ -19669,7 +19166,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="334" spans="1:20" ht="259.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:20" ht="259.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="17">
         <v>327</v>
       </c>
@@ -19703,7 +19200,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="335" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="17">
         <v>328</v>
       </c>
@@ -19737,7 +19234,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="336" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="17">
         <v>329</v>
       </c>
@@ -19771,7 +19268,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="337" spans="1:20" ht="315" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:20" ht="315" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="17">
         <v>330</v>
       </c>
@@ -19805,7 +19302,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="338" spans="1:20" ht="259.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:20" ht="259.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="17">
         <v>331</v>
       </c>
@@ -19839,7 +19336,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="339" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="17">
         <v>332</v>
       </c>
@@ -19873,7 +19370,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="340" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="17">
         <v>333</v>
       </c>
@@ -19907,7 +19404,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="341" spans="1:20" ht="315" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:20" ht="315" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="17">
         <v>334</v>
       </c>
@@ -19941,7 +19438,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="342" spans="1:20" ht="259.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:20" ht="259.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="17">
         <v>335</v>
       </c>
@@ -19975,7 +19472,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="343" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="17">
         <v>336</v>
       </c>
@@ -20009,7 +19506,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="344" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="17">
         <v>337</v>
       </c>
@@ -20043,7 +19540,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="345" spans="1:20" ht="315" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:20" ht="315" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="17">
         <v>338</v>
       </c>
@@ -20077,7 +19574,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="346" spans="1:20" ht="259.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:20" ht="259.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="17">
         <v>339</v>
       </c>
@@ -20111,7 +19608,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="347" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="17">
         <v>340</v>
       </c>
@@ -20145,7 +19642,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="348" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="17">
         <v>341</v>
       </c>
@@ -20179,7 +19676,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="349" spans="1:20" ht="315" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:20" ht="315" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="17">
         <v>342</v>
       </c>
@@ -20213,7 +19710,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="350" spans="1:20" ht="259.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:20" ht="259.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="17">
         <v>343</v>
       </c>
@@ -20247,7 +19744,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="351" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="17">
         <v>344</v>
       </c>
@@ -20281,7 +19778,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="352" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="17">
         <v>345</v>
       </c>
@@ -20315,7 +19812,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="353" spans="1:20" ht="315" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:20" ht="315" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="17">
         <v>346</v>
       </c>
@@ -20349,7 +19846,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="354" spans="1:20" ht="259.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:20" ht="259.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="17">
         <v>347</v>
       </c>
@@ -20383,7 +19880,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="355" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="17">
         <v>348</v>
       </c>
@@ -20417,7 +19914,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="356" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:20" ht="242.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="17">
         <v>349</v>
       </c>
@@ -20451,7 +19948,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="357" spans="1:20" ht="315" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:20" ht="315" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="17">
         <v>350</v>
       </c>
@@ -20485,7 +19982,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="358" spans="1:20" ht="259.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:20" ht="259.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="17">
         <v>351</v>
       </c>
@@ -20519,7 +20016,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="359" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="17">
         <v>352</v>
       </c>
@@ -20553,7 +20050,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="360" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="17">
         <v>353</v>
       </c>
@@ -20587,7 +20084,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="361" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="17">
         <v>354</v>
       </c>
@@ -20621,7 +20118,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="362" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="17">
         <v>355</v>
       </c>
@@ -20655,7 +20152,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="363" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="17">
         <v>356</v>
       </c>
@@ -20689,7 +20186,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="364" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="17">
         <v>357</v>
       </c>
@@ -20723,7 +20220,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="365" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="17">
         <v>358</v>
       </c>
@@ -20757,7 +20254,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="366" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="17">
         <v>359</v>
       </c>
@@ -20791,7 +20288,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="367" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="17">
         <v>360</v>
       </c>
@@ -20825,7 +20322,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="368" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="17">
         <v>361</v>
       </c>
@@ -20859,7 +20356,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="369" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="17">
         <v>362</v>
       </c>
@@ -20893,7 +20390,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="370" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="17">
         <v>363</v>
       </c>
@@ -20927,7 +20424,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="371" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="17">
         <v>364</v>
       </c>
@@ -20961,7 +20458,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="372" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="17">
         <v>365</v>
       </c>
@@ -20995,7 +20492,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="373" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="17">
         <v>366</v>
       </c>
@@ -21029,7 +20526,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="374" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:20" ht="249.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="17">
         <v>367</v>
       </c>
@@ -21113,21 +20610,11 @@
       <c r="E376" s="19" t="s">
         <v>777</v>
       </c>
-      <c r="F376" s="20">
-        <v>45209</v>
-      </c>
-      <c r="G376" s="21" t="s">
-        <v>900</v>
-      </c>
-      <c r="H376" s="21" t="s">
-        <v>901</v>
-      </c>
-      <c r="I376" s="21" t="s">
-        <v>902</v>
-      </c>
-      <c r="J376" s="22" t="s">
-        <v>136</v>
-      </c>
+      <c r="F376" s="20"/>
+      <c r="G376" s="21"/>
+      <c r="H376" s="21"/>
+      <c r="I376" s="21"/>
+      <c r="J376" s="22"/>
       <c r="K376" s="22"/>
       <c r="L376" s="22"/>
       <c r="M376" s="22"/>
@@ -21243,7 +20730,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="380" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="17">
         <v>373</v>
       </c>
@@ -21278,7 +20765,7 @@
       </c>
     </row>
     <row r="381" spans="1:20" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A381" s="55">
+      <c r="A381" s="17">
         <v>374</v>
       </c>
       <c r="B381" s="18" t="s">
@@ -21297,13 +20784,13 @@
         <v>45266</v>
       </c>
       <c r="G381" s="21" t="s">
-        <v>942</v>
+        <v>878</v>
       </c>
       <c r="H381" s="21" t="s">
-        <v>943</v>
+        <v>879</v>
       </c>
       <c r="I381" s="21" t="s">
-        <v>944</v>
+        <v>880</v>
       </c>
       <c r="J381" s="40" t="s">
         <v>136</v>
@@ -28808,27 +28295,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e6d4e7e7-7d2a-4b7b-91fb-dfcf799ece8c" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="7f727d03-77e6-4ed8-b686-bfc5a8681394" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7f727d03-77e6-4ed8-b686-bfc5a8681394">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004B0B21D7C87FDA4AB48A2A5274B76D59" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="bcd25b6d692e609784cef5e62ac1ef9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f727d03-77e6-4ed8-b686-bfc5a8681394" xmlns:ns3="e6d4e7e7-7d2a-4b7b-91fb-dfcf799ece8c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6dd1e099223e11c426947ce331df957f" ns2:_="" ns3:_="">
     <xsd:import namespace="7f727d03-77e6-4ed8-b686-bfc5a8681394"/>
@@ -29063,10 +28529,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e6d4e7e7-7d2a-4b7b-91fb-dfcf799ece8c" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="7f727d03-77e6-4ed8-b686-bfc5a8681394" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7f727d03-77e6-4ed8-b686-bfc5a8681394">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1953E626-51AE-4FEF-A6A6-3017385EEA95}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CB20CB3-E5DD-45EC-AB67-434CB65F3230}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7f727d03-77e6-4ed8-b686-bfc5a8681394"/>
+    <ds:schemaRef ds:uri="e6d4e7e7-7d2a-4b7b-91fb-dfcf799ece8c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -29083,20 +28581,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CB20CB3-E5DD-45EC-AB67-434CB65F3230}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1953E626-51AE-4FEF-A6A6-3017385EEA95}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7f727d03-77e6-4ed8-b686-bfc5a8681394"/>
-    <ds:schemaRef ds:uri="e6d4e7e7-7d2a-4b7b-91fb-dfcf799ece8c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>